--- a/www.eia.gov/electricity/monthly/xls/table_1_02_d.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_1_02_d.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,9 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="43">
-  <si>
-    <t>Table 1.2.D. Net Generation by Energy Source:  Industrial Sector, 2006-October 2016</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="43">
+  <si>
+    <t>Table 1.2.D. Net Generation by Energy Source:  Industrial Sector, 2006-November 2016</t>
   </si>
   <si>
     <t>(Thousand Megawatthours)</t>
@@ -157,7 +157,7 @@
     <t>Year to Date</t>
   </si>
   <si>
-    <t>Rolling 12 Months Ending in October</t>
+    <t>Rolling 12 Months Ending in November</t>
   </si>
   <si>
     <t>Coal includes anthracite, bituminous, subbituminous, lignite, and waste coal; synthetic coal and refined coal; and beginning in 2011, coal-derived synthesis gas. Prior to 2011 coal-derived synthesis gas was included in Other Gases.
@@ -1112,7 +1112,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P60"/>
+  <dimension ref="A1:P61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -3522,322 +3522,372 @@
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="10">
+        <v>595</v>
+      </c>
+      <c r="C53" s="10">
         <v>40</v>
       </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="8"/>
+      <c r="D53" s="10">
+        <v>69</v>
+      </c>
+      <c r="E53" s="10">
+        <v>7782</v>
+      </c>
+      <c r="F53" s="10">
+        <v>641</v>
+      </c>
+      <c r="G53" s="10">
+        <v>0</v>
+      </c>
+      <c r="H53" s="10">
+        <v>68</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J53" s="10">
+        <v>2379</v>
+      </c>
+      <c r="K53" s="10">
+        <v>0</v>
+      </c>
+      <c r="L53" s="10">
+        <v>407</v>
+      </c>
+      <c r="M53" s="10">
+        <v>11983</v>
+      </c>
+      <c r="N53" s="10">
+        <v>123</v>
+      </c>
+      <c r="O53" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P53" s="10" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="9">
-        <v>2014</v>
-      </c>
-      <c r="B54" s="10">
-        <v>10360</v>
-      </c>
-      <c r="C54" s="10">
-        <v>460</v>
-      </c>
-      <c r="D54" s="10">
-        <v>1160</v>
-      </c>
-      <c r="E54" s="10">
-        <v>71457</v>
-      </c>
-      <c r="F54" s="10">
-        <v>7102</v>
-      </c>
-      <c r="G54" s="10">
-        <v>0</v>
-      </c>
-      <c r="H54" s="10">
-        <v>1058</v>
-      </c>
-      <c r="I54" s="10">
-        <v>14</v>
-      </c>
-      <c r="J54" s="10">
-        <v>23852</v>
-      </c>
-      <c r="K54" s="10">
-        <v>0</v>
-      </c>
-      <c r="L54" s="10">
-        <v>4065</v>
-      </c>
-      <c r="M54" s="10">
-        <v>119529</v>
-      </c>
-      <c r="N54" s="10">
-        <v>984</v>
-      </c>
-      <c r="O54" s="10">
-        <v>999</v>
-      </c>
-      <c r="P54" s="10">
-        <v>999</v>
-      </c>
+      <c r="A54" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B55" s="10">
-        <v>9234</v>
+        <v>11326</v>
       </c>
       <c r="C55" s="10">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="D55" s="10">
-        <v>827</v>
+        <v>1268</v>
       </c>
       <c r="E55" s="10">
-        <v>72697</v>
+        <v>78540</v>
       </c>
       <c r="F55" s="10">
-        <v>7928</v>
+        <v>7874</v>
       </c>
       <c r="G55" s="10">
         <v>0</v>
       </c>
       <c r="H55" s="10">
-        <v>1132</v>
+        <v>1157</v>
       </c>
       <c r="I55" s="10">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J55" s="10">
-        <v>23775</v>
+        <v>26149</v>
       </c>
       <c r="K55" s="10">
         <v>0</v>
       </c>
       <c r="L55" s="10">
-        <v>4531</v>
+        <v>4494</v>
       </c>
       <c r="M55" s="10">
-        <v>120632</v>
+        <v>131326</v>
       </c>
       <c r="N55" s="10">
-        <v>1258</v>
+        <v>1065</v>
       </c>
       <c r="O55" s="10">
-        <v>1276</v>
+        <v>1081</v>
       </c>
       <c r="P55" s="10">
-        <v>1276</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
+        <v>2015</v>
+      </c>
+      <c r="B56" s="10">
+        <v>10064</v>
+      </c>
+      <c r="C56" s="10">
+        <v>525</v>
+      </c>
+      <c r="D56" s="10">
+        <v>912</v>
+      </c>
+      <c r="E56" s="10">
+        <v>80218</v>
+      </c>
+      <c r="F56" s="10">
+        <v>8595</v>
+      </c>
+      <c r="G56" s="10">
+        <v>0</v>
+      </c>
+      <c r="H56" s="10">
+        <v>1265</v>
+      </c>
+      <c r="I56" s="10">
+        <v>20</v>
+      </c>
+      <c r="J56" s="10">
+        <v>26155</v>
+      </c>
+      <c r="K56" s="10">
+        <v>0</v>
+      </c>
+      <c r="L56" s="10">
+        <v>4988</v>
+      </c>
+      <c r="M56" s="10">
+        <v>132742</v>
+      </c>
+      <c r="N56" s="10">
+        <v>1358</v>
+      </c>
+      <c r="O56" s="10">
+        <v>1378</v>
+      </c>
+      <c r="P56" s="10">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
         <v>2016</v>
       </c>
-      <c r="B56" s="10">
-        <v>7950</v>
-      </c>
-      <c r="C56" s="10">
-        <v>419</v>
-      </c>
-      <c r="D56" s="10">
-        <v>802</v>
-      </c>
-      <c r="E56" s="10">
-        <v>76516</v>
-      </c>
-      <c r="F56" s="10">
-        <v>7608</v>
-      </c>
-      <c r="G56" s="10">
-        <v>0</v>
-      </c>
-      <c r="H56" s="10">
-        <v>1109</v>
-      </c>
-      <c r="I56" s="10">
-        <v>26</v>
-      </c>
-      <c r="J56" s="10">
-        <v>23372</v>
-      </c>
-      <c r="K56" s="10">
-        <v>0</v>
-      </c>
-      <c r="L56" s="10">
-        <v>4369</v>
-      </c>
-      <c r="M56" s="10">
-        <v>122170</v>
-      </c>
-      <c r="N56" s="10">
-        <v>1596</v>
-      </c>
-      <c r="O56" s="10">
-        <v>1623</v>
-      </c>
-      <c r="P56" s="10">
-        <v>1623</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="B57" s="10">
+        <v>8544</v>
+      </c>
+      <c r="C57" s="10">
+        <v>459</v>
+      </c>
+      <c r="D57" s="10">
+        <v>871</v>
+      </c>
+      <c r="E57" s="10">
+        <v>84298</v>
+      </c>
+      <c r="F57" s="10">
+        <v>8248</v>
+      </c>
+      <c r="G57" s="10">
+        <v>0</v>
+      </c>
+      <c r="H57" s="10">
+        <v>1177</v>
+      </c>
+      <c r="I57" s="10">
+        <v>28</v>
+      </c>
+      <c r="J57" s="10">
+        <v>25751</v>
+      </c>
+      <c r="K57" s="10">
+        <v>0</v>
+      </c>
+      <c r="L57" s="10">
+        <v>4776</v>
+      </c>
+      <c r="M57" s="10">
+        <v>134153</v>
+      </c>
+      <c r="N57" s="10">
+        <v>1720</v>
+      </c>
+      <c r="O57" s="10">
+        <v>1748</v>
+      </c>
+      <c r="P57" s="10">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="9">
-        <v>2015</v>
-      </c>
-      <c r="B58" s="10">
-        <v>11214</v>
-      </c>
-      <c r="C58" s="10">
-        <v>573</v>
-      </c>
-      <c r="D58" s="10">
-        <v>1057</v>
-      </c>
-      <c r="E58" s="10">
-        <v>87450</v>
-      </c>
-      <c r="F58" s="10">
-        <v>9489</v>
-      </c>
-      <c r="G58" s="10">
-        <v>0</v>
-      </c>
-      <c r="H58" s="10">
-        <v>1356</v>
-      </c>
-      <c r="I58" s="10">
-        <v>21</v>
-      </c>
-      <c r="J58" s="10">
-        <v>28582</v>
-      </c>
-      <c r="K58" s="10">
-        <v>0</v>
-      </c>
-      <c r="L58" s="10">
-        <v>5444</v>
-      </c>
-      <c r="M58" s="10">
-        <v>145186</v>
-      </c>
-      <c r="N58" s="10">
-        <v>1413</v>
-      </c>
-      <c r="O58" s="10">
-        <v>1433</v>
-      </c>
-      <c r="P58" s="10">
-        <v>1433</v>
-      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
+        <v>2015</v>
+      </c>
+      <c r="B59" s="10">
+        <v>11079</v>
+      </c>
+      <c r="C59" s="10">
+        <v>567</v>
+      </c>
+      <c r="D59" s="10">
+        <v>1033</v>
+      </c>
+      <c r="E59" s="10">
+        <v>87887</v>
+      </c>
+      <c r="F59" s="10">
+        <v>9385</v>
+      </c>
+      <c r="G59" s="10">
+        <v>0</v>
+      </c>
+      <c r="H59" s="10">
+        <v>1389</v>
+      </c>
+      <c r="I59" s="10">
+        <v>21</v>
+      </c>
+      <c r="J59" s="10">
+        <v>28665</v>
+      </c>
+      <c r="K59" s="10">
+        <v>0</v>
+      </c>
+      <c r="L59" s="10">
+        <v>5472</v>
+      </c>
+      <c r="M59" s="10">
+        <v>145498</v>
+      </c>
+      <c r="N59" s="10">
+        <v>1432</v>
+      </c>
+      <c r="O59" s="10">
+        <v>1453</v>
+      </c>
+      <c r="P59" s="10">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
         <v>2016</v>
       </c>
-      <c r="B59" s="10">
-        <v>9612</v>
-      </c>
-      <c r="C59" s="10">
-        <v>493</v>
-      </c>
-      <c r="D59" s="10" t="s">
+      <c r="B60" s="10">
+        <v>9377</v>
+      </c>
+      <c r="C60" s="10">
+        <v>497</v>
+      </c>
+      <c r="D60" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E59" s="10">
-        <v>92174</v>
-      </c>
-      <c r="F59" s="10">
-        <v>9081</v>
-      </c>
-      <c r="G59" s="10">
-        <v>0</v>
-      </c>
-      <c r="H59" s="10">
-        <v>1387</v>
-      </c>
-      <c r="I59" s="10" t="s">
+      <c r="E60" s="10">
+        <v>92436</v>
+      </c>
+      <c r="F60" s="10">
+        <v>9054</v>
+      </c>
+      <c r="G60" s="10">
+        <v>0</v>
+      </c>
+      <c r="H60" s="10">
+        <v>1322</v>
+      </c>
+      <c r="I60" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J59" s="10">
-        <v>28211</v>
-      </c>
-      <c r="K59" s="10">
-        <v>0</v>
-      </c>
-      <c r="L59" s="10">
-        <v>5300</v>
-      </c>
-      <c r="M59" s="10">
-        <v>147251</v>
-      </c>
-      <c r="N59" s="10">
-        <v>1790</v>
-      </c>
-      <c r="O59" s="10" t="s">
+      <c r="J60" s="10">
+        <v>28210</v>
+      </c>
+      <c r="K60" s="10">
+        <v>0</v>
+      </c>
+      <c r="L60" s="10">
+        <v>5251</v>
+      </c>
+      <c r="M60" s="10">
+        <v>147124</v>
+      </c>
+      <c r="N60" s="10">
+        <v>1813</v>
+      </c>
+      <c r="O60" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="P59" s="10" t="s">
+      <c r="P60" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="237.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+    <row r="61" spans="1:16" ht="237.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="11"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="11"/>
-      <c r="P60" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A29:P29"/>
     <mergeCell ref="A42:P42"/>
-    <mergeCell ref="A53:P53"/>
-    <mergeCell ref="A57:P57"/>
-    <mergeCell ref="A60:P60"/>
+    <mergeCell ref="A54:P54"/>
+    <mergeCell ref="A58:P58"/>
+    <mergeCell ref="A61:P61"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="B3:M3"/>
